--- a/Contaduria/HORARIOS CONTADURIA.xlsx
+++ b/Contaduria/HORARIOS CONTADURIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07C4377-BAEB-4E60-A165-DB6C4075A7A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4EC3E4B-E367-47F7-ADA3-19AA999F73C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="9" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -591,10 +591,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -603,10 +603,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,63 +948,63 @@
   <sheetData>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="R3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="23"/>
-      <c r="S4" s="21"/>
+      <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="20" t="s">
+      <c r="K5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P5" s="8" t="s">
@@ -1019,19 +1019,19 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="P6" s="9" t="s">
         <v>26</v>
       </c>
@@ -1367,6 +1367,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -1374,16 +1384,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1394,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C7EF15-3D56-4548-966A-D4C6D4BC0FE3}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
@@ -1410,76 +1410,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1807,6 +1807,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="A4:A5"/>
@@ -1823,7 +1824,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1833,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21AB377-5475-4309-827B-E5C4DEE4CA98}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,76 +1849,76 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="20" t="s">
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="R4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
       <c r="R5" s="23"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="25"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2040,7 +2040,7 @@
         <v>47</v>
       </c>
       <c r="Q10" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="6"/>
@@ -2258,6 +2258,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2270,11 +2275,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2300,76 +2300,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2704,6 +2704,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2716,11 +2721,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2746,76 +2746,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3151,6 +3151,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3163,11 +3168,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3193,76 +3193,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3590,6 +3590,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3602,11 +3607,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3632,76 +3632,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4033,6 +4033,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -4045,11 +4050,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4075,76 +4075,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4472,6 +4472,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -4484,11 +4489,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4514,76 +4514,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4911,6 +4911,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -4923,11 +4928,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4953,80 +4953,80 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5341,12 +5341,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -5359,6 +5353,12 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Contaduria/HORARIOS CONTADURIA.xlsx
+++ b/Contaduria/HORARIOS CONTADURIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4EC3E4B-E367-47F7-ADA3-19AA999F73C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2245637A-826B-4491-B15F-D3CC3505D02A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="VIII" sheetId="8" r:id="rId8"/>
     <sheet name="IX" sheetId="9" r:id="rId9"/>
     <sheet name="X" sheetId="10" r:id="rId10"/>
+    <sheet name="OTRAS ASIGNATURAS " sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="119">
   <si>
     <t>HORA</t>
   </si>
@@ -168,9 +169,6 @@
     <t>No. G</t>
   </si>
   <si>
-    <t>CEDIB1</t>
-  </si>
-  <si>
     <t>CP100</t>
   </si>
   <si>
@@ -237,9 +235,6 @@
     <t>CP604</t>
   </si>
   <si>
-    <t>C9602</t>
-  </si>
-  <si>
     <t>CP605</t>
   </si>
   <si>
@@ -288,26 +283,122 @@
     <t>CP900</t>
   </si>
   <si>
-    <t>CP1003</t>
-  </si>
-  <si>
-    <t>CP1006</t>
-  </si>
-  <si>
-    <t>CP1001</t>
-  </si>
-  <si>
-    <t>CP1002</t>
-  </si>
-  <si>
-    <t>CP1005</t>
+    <t>CP133</t>
+  </si>
+  <si>
+    <t>CP211</t>
+  </si>
+  <si>
+    <t>CP901</t>
+  </si>
+  <si>
+    <t>CP131</t>
+  </si>
+  <si>
+    <t>CP716</t>
+  </si>
+  <si>
+    <t>CP818</t>
+  </si>
+  <si>
+    <t>CP921</t>
+  </si>
+  <si>
+    <t>CP209</t>
+  </si>
+  <si>
+    <t>CP206-1</t>
+  </si>
+  <si>
+    <t>CP1013</t>
+  </si>
+  <si>
+    <t>CP132</t>
+  </si>
+  <si>
+    <t>CP301</t>
+  </si>
+  <si>
+    <t>CP304</t>
+  </si>
+  <si>
+    <t>CP401</t>
+  </si>
+  <si>
+    <t>AI200</t>
+  </si>
+  <si>
+    <t>CP124</t>
+  </si>
+  <si>
+    <t>CP1022</t>
+  </si>
+  <si>
+    <t>CP1020</t>
+  </si>
+  <si>
+    <t>CP715</t>
+  </si>
+  <si>
+    <t>CP817</t>
+  </si>
+  <si>
+    <t>CP602</t>
+  </si>
+  <si>
+    <t>CP119</t>
+  </si>
+  <si>
+    <t>CP208</t>
+  </si>
+  <si>
+    <t>CP207-1</t>
+  </si>
+  <si>
+    <t>CP205</t>
+  </si>
+  <si>
+    <t>PENSUM 2013</t>
+  </si>
+  <si>
+    <t>ELECTIVA</t>
+  </si>
+  <si>
+    <t>estudiantes</t>
+  </si>
+  <si>
+    <t>Estas asignaturas algunas son del pensum anterior y otras son de otros progrmas</t>
+  </si>
+  <si>
+    <t>ADMON Y ECONOMIA</t>
+  </si>
+  <si>
+    <t>AGROINDUSTRIA</t>
+  </si>
+  <si>
+    <t>PENSUM ANTERIOR</t>
+  </si>
+  <si>
+    <t>ADMON, ECONOMIA Y COMERCIO</t>
+  </si>
+  <si>
+    <t>COMERCIO</t>
+  </si>
+  <si>
+    <t>HOTLERIA Y TURISMO</t>
+  </si>
+  <si>
+    <t>ADMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMON </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,16 +414,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -518,17 +628,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -538,11 +637,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -578,23 +706,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -603,10 +737,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,11 +1121,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB25AAA-D2BB-4E62-8CC7-02DE57045219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +1153,7 @@
       <c r="Q3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="26" t="s">
         <v>28</v>
       </c>
       <c r="S3" s="24" t="s">
@@ -964,14 +1163,14 @@
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="23"/>
+      <c r="R4" s="27"/>
       <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -1016,11 +1215,13 @@
       <c r="R5" s="11">
         <v>40</v>
       </c>
-      <c r="S5" s="5"/>
+      <c r="S5" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -1041,7 +1242,9 @@
       <c r="R6" s="12">
         <v>40</v>
       </c>
-      <c r="S6" s="6"/>
+      <c r="S6" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1068,7 +1271,9 @@
       <c r="R7" s="12">
         <v>40</v>
       </c>
-      <c r="S7" s="6"/>
+      <c r="S7" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1087,7 +1292,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="P8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="9">
         <v>3</v>
@@ -1095,7 +1300,9 @@
       <c r="R8" s="12">
         <v>40</v>
       </c>
-      <c r="S8" s="6"/>
+      <c r="S8" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1122,7 +1329,9 @@
       <c r="R9" s="12">
         <v>40</v>
       </c>
-      <c r="S9" s="6"/>
+      <c r="S9" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1149,7 +1358,9 @@
       <c r="R10" s="12">
         <v>40</v>
       </c>
-      <c r="S10" s="6"/>
+      <c r="S10" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1176,7 +1387,9 @@
       <c r="R11" s="13">
         <v>40</v>
       </c>
-      <c r="S11" s="7"/>
+      <c r="S11" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1367,16 +1580,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -1384,6 +1587,16 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1391,11 +1604,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C7EF15-3D56-4548-966A-D4C6D4BC0FE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="R6" sqref="R6:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,10 +1623,10 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -1455,7 +1668,7 @@
       <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="26" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="24" t="s">
@@ -1463,8 +1676,471 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="47"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>35</v>
+      </c>
+      <c r="R6" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>35</v>
+      </c>
+      <c r="R7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>35</v>
+      </c>
+      <c r="R8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>35</v>
+      </c>
+      <c r="R9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>35</v>
+      </c>
+      <c r="R10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A3:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -1478,10 +2154,10 @@
       <c r="M5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="27"/>
       <c r="R5" s="25"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1498,15 +2174,22 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="8" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>35</v>
+      </c>
+      <c r="R6" s="50">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1523,15 +2206,22 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="O7" s="9" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P7" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>30</v>
+      </c>
+      <c r="R7" s="51">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1548,15 +2238,1190 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="O8" s="9" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="P8" s="9">
         <v>4</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="12">
+        <v>35</v>
+      </c>
+      <c r="R8" s="51">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>35</v>
+      </c>
+      <c r="R9" s="52">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>35</v>
+      </c>
+      <c r="R10" s="52">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>35</v>
+      </c>
+      <c r="R11" s="52">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>35</v>
+      </c>
+      <c r="R12" s="52">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>35</v>
+      </c>
+      <c r="R13" s="52">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="O14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>35</v>
+      </c>
+      <c r="R14" s="52">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="O15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>35</v>
+      </c>
+      <c r="R15" s="52">
+        <v>2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="O16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>35</v>
+      </c>
+      <c r="R16" s="52">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="O17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>35</v>
+      </c>
+      <c r="R17" s="52">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="O18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>35</v>
+      </c>
+      <c r="R18" s="52">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="O19" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>35</v>
+      </c>
+      <c r="R19" s="53">
+        <v>2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="O20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>35</v>
+      </c>
+      <c r="R20" s="52">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="O21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>35</v>
+      </c>
+      <c r="R21" s="52">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>35</v>
+      </c>
+      <c r="R22" s="53">
+        <v>2</v>
+      </c>
+      <c r="S22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" s="21">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>10</v>
+      </c>
+      <c r="R23" s="53">
+        <v>7</v>
+      </c>
+      <c r="S23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O24" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>35</v>
+      </c>
+      <c r="R24" s="54">
+        <v>2</v>
+      </c>
+      <c r="S24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O25" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+    </row>
+  </sheetData>
+  <sortState ref="O7:R22">
+    <sortCondition ref="O7:O22"/>
+  </sortState>
+  <mergeCells count="17">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:S21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="P6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>2</v>
+      </c>
+      <c r="R6" s="11">
+        <v>35</v>
+      </c>
+      <c r="S6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="P7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>4</v>
+      </c>
+      <c r="R7" s="11">
+        <v>35</v>
+      </c>
+      <c r="S7" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="P8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>3</v>
+      </c>
+      <c r="R8" s="11">
+        <v>35</v>
+      </c>
+      <c r="S8" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="P9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>2</v>
+      </c>
+      <c r="R9" s="11">
+        <v>35</v>
+      </c>
+      <c r="S9" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="P10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>4</v>
+      </c>
+      <c r="R10" s="11">
+        <v>35</v>
+      </c>
+      <c r="S10" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="P11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>2</v>
+      </c>
+      <c r="R11" s="11">
+        <v>35</v>
+      </c>
+      <c r="S11" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="P12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>4</v>
+      </c>
+      <c r="R12" s="11">
+        <v>35</v>
+      </c>
+      <c r="S12" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="P13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:S21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>35</v>
+      </c>
+      <c r="R6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>35</v>
+      </c>
+      <c r="R7" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>35</v>
+      </c>
+      <c r="R8" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1573,15 +3438,19 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="O9" s="9" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="P9" s="9">
         <v>3</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="11">
+        <v>35</v>
+      </c>
+      <c r="R9" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1598,15 +3467,19 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="O10" s="9" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="P10" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>35</v>
+      </c>
+      <c r="R10" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1623,15 +3496,966 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="O11" s="9" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="P11" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>35</v>
+      </c>
+      <c r="R11" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
+        <v>500</v>
+      </c>
+      <c r="S12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:R21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>35</v>
+      </c>
+      <c r="R6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>30</v>
+      </c>
+      <c r="R7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>35</v>
+      </c>
+      <c r="R9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>35</v>
+      </c>
+      <c r="R10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>35</v>
+      </c>
+      <c r="R11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>35</v>
+      </c>
+      <c r="R12" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A3:S21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>35</v>
+      </c>
+      <c r="R6" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="34">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>35</v>
+      </c>
+      <c r="R7" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="34">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>35</v>
+      </c>
+      <c r="R8" s="33"/>
+      <c r="S8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>35</v>
+      </c>
+      <c r="R9" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>25</v>
+      </c>
+      <c r="R10" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>35</v>
+      </c>
+      <c r="R11" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1652,7 +4476,7 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1669,7 +4493,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +4510,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1703,7 +4527,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1808,462 +4632,6 @@
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21AB377-5475-4309-827B-E5C4DEE4CA98}">
-  <dimension ref="A3:S21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="25"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="P6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>2</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="P7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>4</v>
-      </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="P8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>3</v>
-      </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="P9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>2</v>
-      </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="P10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>4</v>
-      </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="P11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>2</v>
-      </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="P12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>4</v>
-      </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="19"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="P13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>0</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -2275,35 +4643,40 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B34897-C3CC-413D-A044-78825B535787}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="O6" sqref="O6:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -2345,7 +4718,7 @@
       <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="26" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="24" t="s">
@@ -2353,8 +4726,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -2368,7 +4741,7 @@
       <c r="M5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="27"/>
       <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -2387,14 +4760,18 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
+      <c r="O6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>0</v>
+      </c>
+      <c r="R6" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2412,14 +4789,18 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
+      <c r="O7" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="37">
+        <v>35</v>
+      </c>
+      <c r="R7" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2437,14 +4818,18 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
+      <c r="O8" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="37">
+        <v>35</v>
+      </c>
+      <c r="R8" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2462,14 +4847,18 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
+      <c r="O9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="38">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>35</v>
+      </c>
+      <c r="R9" s="38">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2487,14 +4876,18 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="9">
+      <c r="O10" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="34">
         <v>4</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
+      <c r="Q10" s="37">
+        <v>35</v>
+      </c>
+      <c r="R10" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2512,14 +4905,18 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
+      <c r="O11" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="37">
+        <v>35</v>
+      </c>
+      <c r="R11" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -2537,16 +4934,20 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="O12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="41">
+        <v>25</v>
+      </c>
+      <c r="R12" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -2562,9 +4963,6 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2703,12 +5101,10 @@
       <c r="M21" s="7"/>
     </row>
   </sheetData>
+  <sortState ref="O7:R11">
+    <sortCondition ref="O7:O11"/>
+  </sortState>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2721,35 +5117,40 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98090E5B-EC8F-4FB3-8BA2-B9CF7E7F622B}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -2791,7 +5192,7 @@
       <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="26" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="24" t="s">
@@ -2799,8 +5200,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -2814,7 +5215,7 @@
       <c r="M5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="27"/>
       <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -2833,14 +5234,18 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
+      <c r="O6" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>35</v>
+      </c>
+      <c r="R6" s="43">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2858,14 +5263,18 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
+      <c r="O7" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>35</v>
+      </c>
+      <c r="R7" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2883,14 +5292,18 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
+      <c r="O8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>35</v>
+      </c>
+      <c r="R8" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2908,14 +5321,18 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
+      <c r="O9" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>30</v>
+      </c>
+      <c r="R9" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2933,14 +5350,18 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
+      <c r="O10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>35</v>
+      </c>
+      <c r="R10" s="45">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2958,16 +5379,20 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O11" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>35</v>
+      </c>
+      <c r="R11" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -2983,16 +5408,12 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="O12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -3008,10 +5429,6 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -3151,11 +5568,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3168,35 +5580,40 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20AA679-064E-4D53-A849-351642C46016}">
-  <dimension ref="A3:R21"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A3:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="O6" sqref="O6:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -3238,16 +5655,16 @@
       <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="26" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -3261,10 +5678,10 @@
       <c r="M5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="27"/>
       <c r="R5" s="25"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3280,16 +5697,20 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="O6" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="31">
         <v>4</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="32">
+        <v>35</v>
+      </c>
+      <c r="R6" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3305,16 +5726,21 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>35</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -3330,16 +5756,20 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" s="9">
+      <c r="O8" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="35">
+        <v>35</v>
+      </c>
+      <c r="R8" s="34">
         <v>2</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -3355,16 +5785,20 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="9">
+      <c r="O9" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="34">
         <v>4</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="35">
+        <v>35</v>
+      </c>
+      <c r="R9" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -3380,16 +5814,20 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O10" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>35</v>
+      </c>
+      <c r="R10" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -3405,16 +5843,20 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="9">
+      <c r="O11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="34">
         <v>4</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="35">
+        <v>40</v>
+      </c>
+      <c r="R11" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -3433,9 +5875,9 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -3452,7 +5894,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -3469,7 +5911,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -3486,7 +5928,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -3590,11 +6032,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3607,1338 +6044,22 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE898E07-6592-4066-911E-CF5F3C3D4840}">
-  <dimension ref="A3:R21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="25"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064AE008-59FD-4E5B-9BC0-E22A9BBCAEEE}">
-  <dimension ref="A3:R21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="25"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC99442-6ED8-4791-9340-3655DBBA79CB}">
-  <dimension ref="A3:R21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="25"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D77BECE-C5E5-4AC8-A998-3520FF4F3F8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="O6" sqref="O6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4953,10 +6074,10 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -4998,7 +6119,7 @@
       <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="26" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="24" t="s">
@@ -5009,8 +6130,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -5024,7 +6145,7 @@
       <c r="M5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="27"/>
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
     </row>
@@ -5044,14 +6165,18 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="O6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="31">
         <v>12</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
+      <c r="Q6" s="32">
+        <v>10</v>
+      </c>
+      <c r="R6" s="46">
+        <v>5</v>
+      </c>
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -5341,6 +6466,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -5353,12 +6484,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Contaduria/HORARIOS CONTADURIA.xlsx
+++ b/Contaduria/HORARIOS CONTADURIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E722B-2F4E-4859-8627-29F7252A7D99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D7024B-5747-40CE-B028-AABA38E6693E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="282">
   <si>
     <t>HORA</t>
   </si>
@@ -613,9 +613,6 @@
     <t>CP605(02)</t>
   </si>
   <si>
-    <t>CP601(0)</t>
-  </si>
-  <si>
     <t>CP605(03)</t>
   </si>
   <si>
@@ -845,6 +842,45 @@
   </si>
   <si>
     <t>CP124(02)</t>
+  </si>
+  <si>
+    <t>CP132(01)</t>
+  </si>
+  <si>
+    <t>CP132(02)</t>
+  </si>
+  <si>
+    <t>CP132(03)</t>
+  </si>
+  <si>
+    <t>CP133(01)</t>
+  </si>
+  <si>
+    <t>CP133(02)</t>
+  </si>
+  <si>
+    <t>AI200(01)</t>
+  </si>
+  <si>
+    <t>HOMOLOGO SABADO</t>
+  </si>
+  <si>
+    <t>EC107</t>
+  </si>
+  <si>
+    <t>CP301(01)</t>
+  </si>
+  <si>
+    <t>CP304(01)</t>
+  </si>
+  <si>
+    <t>CP304(02)</t>
+  </si>
+  <si>
+    <t>CP211(01)</t>
+  </si>
+  <si>
+    <t>CP401(01)</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1217,15 +1253,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1358,6 +1385,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1698,63 +1735,63 @@
   <sheetData>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="64" t="s">
+      <c r="R3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="62" t="s">
+      <c r="S3" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="63"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="60"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="62" t="s">
+      <c r="C5" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="62" t="s">
+      <c r="E5" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="62" t="s">
+      <c r="G5" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="62" t="s">
+      <c r="I5" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="62" t="s">
+      <c r="K5" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="59" t="s">
         <v>18</v>
       </c>
       <c r="P5" s="8" t="s">
@@ -1771,19 +1808,19 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
       <c r="P6" s="9" t="s">
         <v>26</v>
       </c>
@@ -2158,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,127 +2211,127 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="K4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="62" t="s">
+      <c r="M4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="68"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="65"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>237</v>
+      <c r="D6" s="39" t="s">
+        <v>236</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>156</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="42" t="s">
-        <v>237</v>
+      <c r="H6" s="39" t="s">
+        <v>236</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>156</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>142</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="32">
         <v>4</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="32">
         <v>35</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="32">
         <v>4</v>
       </c>
     </row>
@@ -2303,51 +2340,51 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>156</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>156</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>156</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>142</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="30">
         <v>4</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="30">
         <v>35</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="30">
         <v>4</v>
       </c>
     </row>
@@ -2356,7 +2393,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>131</v>
@@ -2364,7 +2401,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>142</v>
@@ -2375,16 +2412,16 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="30">
         <v>3</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="30">
         <v>35</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="30">
         <v>4</v>
       </c>
     </row>
@@ -2393,7 +2430,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>131</v>
@@ -2401,7 +2438,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>142</v>
@@ -2412,16 +2449,16 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="30">
         <v>4</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="30">
         <v>35</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="30">
         <v>4</v>
       </c>
     </row>
@@ -2432,7 +2469,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>188</v>
@@ -2442,34 +2479,34 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>131</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="30">
         <v>2</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="30">
         <v>35</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>188</v>
@@ -2479,7 +2516,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>131</v>
@@ -2492,13 +2529,13 @@
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>188</v>
@@ -2529,65 +2566,65 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>142</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="O13" s="69" t="s">
+      <c r="O13" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="42" t="s">
+      <c r="D14" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="I14" s="42" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="J14" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="K14" s="42" t="s">
+      <c r="J14" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="K14" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>131</v>
@@ -2595,13 +2632,13 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>156</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>142</v>
@@ -2614,31 +2651,31 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>142</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>142</v>
@@ -2647,35 +2684,35 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>120</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>142</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>142</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>142</v>
@@ -2684,38 +2721,38 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="K18" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2725,34 +2762,34 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="K19" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -2762,34 +2799,34 @@
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="J20" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -2799,94 +2836,94 @@
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="62" t="s">
+      <c r="E24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="62" t="s">
+      <c r="G24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="62" t="s">
+      <c r="I24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="62" t="s">
+      <c r="K24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="62" t="s">
+      <c r="M24" s="59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3079,43 +3116,43 @@
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G38" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="K38" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -3139,22 +3176,22 @@
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -3168,22 +3205,22 @@
         <v>4</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -3232,10 +3269,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A3:T26"/>
+  <dimension ref="A3:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3247,82 +3284,83 @@
     <col min="11" max="11" width="7.42578125" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" style="28"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="K4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="62" t="s">
+      <c r="M4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="63"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="60"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3338,23 +3376,23 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="56">
         <v>3</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="31">
         <v>35</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="75">
         <v>2</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="52" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3370,23 +3408,39 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="30">
         <v>2</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="55">
         <v>30</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="68">
         <v>2</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="52" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T7" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="U7" s="78"/>
+      <c r="V7" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="W7" s="30">
+        <v>2</v>
+      </c>
+      <c r="X7" s="55">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -3402,199 +3456,247 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="55" t="s">
+      <c r="P8" s="30"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T8" s="55"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>35</v>
-      </c>
-      <c r="R9" s="31">
-        <v>2</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="52" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="56" t="s">
+      <c r="O10" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="55" t="s">
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="10" t="s">
+      <c r="B11" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="O11" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="53">
         <v>3</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="54">
         <v>35</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="69">
         <v>3</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="52" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="56" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="55" t="s">
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="55"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="O13" s="10" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="O13" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="53">
         <v>3</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="54">
         <v>35</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="69">
         <v>1</v>
       </c>
       <c r="S13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="O14" s="10" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="53">
         <v>3</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="54">
         <v>35</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="69">
         <v>1</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -3606,27 +3708,35 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="O15" s="10" t="s">
+      <c r="J15" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="P15" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="13">
+      <c r="P15" s="53">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="54">
         <v>35</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="69">
         <v>2</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -3638,213 +3748,618 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="53">
         <v>3</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="54">
         <v>35</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="69">
         <v>1</v>
       </c>
       <c r="S16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="O17" s="56" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="O17" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="55" t="s">
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T17" s="55"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="O18" s="56" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="55" t="s">
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T18" s="55"/>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="O19" s="52" t="s">
+      <c r="O19" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="55" t="s">
+      <c r="P19" s="49"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T19" s="55"/>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="14"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="O20" s="56" t="s">
+      <c r="O20" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="55" t="s">
+      <c r="P20" s="53"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T20" s="55"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="O21" s="56" t="s">
+      <c r="O21" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="55" t="s">
+      <c r="P21" s="53"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="52" t="s">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="55" t="s">
+      <c r="P22" s="49"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T22" s="55"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O23" s="52" t="s">
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="55" t="s">
+      <c r="P23" s="49"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T23" s="55"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O24" s="75" t="s">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="55" t="s">
+      <c r="P24" s="72"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T24" s="55"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="64"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
       <c r="O25" s="18" t="s">
         <v>110</v>
       </c>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
   </sheetData>
   <sortState ref="O7:R22">
     <sortCondition ref="O7:O22"/>
   </sortState>
-  <mergeCells count="17">
+  <mergeCells count="31">
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3872,7 +4387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
@@ -3894,76 +4409,76 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="K4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="62" t="s">
+      <c r="M4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="63"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="60"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4055,16 +4570,16 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="P8" s="33" t="s">
+      <c r="P8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="30">
         <v>3</v>
       </c>
-      <c r="R8" s="59">
+      <c r="R8" s="56">
         <v>35</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="32">
         <v>3</v>
       </c>
     </row>
@@ -4191,16 +4706,16 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="P12" s="36" t="s">
+      <c r="P12" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="33">
         <v>4</v>
       </c>
-      <c r="R12" s="59">
+      <c r="R12" s="56">
         <v>35</v>
       </c>
-      <c r="S12" s="35">
+      <c r="S12" s="32">
         <v>4</v>
       </c>
     </row>
@@ -4238,10 +4753,10 @@
       <c r="Q13" s="10">
         <v>0</v>
       </c>
-      <c r="R13" s="60">
+      <c r="R13" s="57">
         <v>0</v>
       </c>
-      <c r="S13" s="61">
+      <c r="S13" s="58">
         <v>0</v>
       </c>
     </row>
@@ -4435,60 +4950,60 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="62" t="s">
+      <c r="E24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="62" t="s">
+      <c r="G24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="62" t="s">
+      <c r="I24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="62" t="s">
+      <c r="K24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="62" t="s">
+      <c r="M24" s="59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -4764,60 +5279,60 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="62" t="s">
+      <c r="C44" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="62" t="s">
+      <c r="E44" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="62" t="s">
+      <c r="G44" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="62" t="s">
+      <c r="I44" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="62" t="s">
+      <c r="K44" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M44" s="62" t="s">
+      <c r="M44" s="59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -5167,76 +5682,76 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="K4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="62" t="s">
+      <c r="M4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="68"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="65"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5272,7 +5787,7 @@
       <c r="P6" s="8">
         <v>3</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="34">
         <v>35</v>
       </c>
       <c r="R6" s="15">
@@ -5313,7 +5828,7 @@
       <c r="P7" s="9">
         <v>3</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="34">
         <v>35</v>
       </c>
       <c r="R7" s="9">
@@ -5340,16 +5855,16 @@
       <c r="M8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="30">
         <v>3</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="36">
         <v>35</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="30">
         <v>4</v>
       </c>
     </row>
@@ -5375,7 +5890,7 @@
       <c r="P9" s="9">
         <v>3</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="34">
         <v>35</v>
       </c>
       <c r="R9" s="9">
@@ -5410,16 +5925,16 @@
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="30">
         <v>4</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="36">
         <v>35</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="30">
         <v>4</v>
       </c>
     </row>
@@ -5457,7 +5972,7 @@
       <c r="P11" s="9">
         <v>3</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="34">
         <v>35</v>
       </c>
       <c r="R11" s="9">
@@ -5490,7 +6005,7 @@
       <c r="P12" s="9">
         <v>0</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="34">
         <v>0</v>
       </c>
       <c r="R12" s="9">
@@ -5518,7 +6033,7 @@
       <c r="M13" s="6"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="38"/>
+      <c r="Q13" s="35"/>
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -5763,76 +6278,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="K4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="62" t="s">
+      <c r="M4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="63"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="60"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5895,16 +6410,16 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="30">
         <v>3</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="31">
         <v>30</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="30">
         <v>4</v>
       </c>
     </row>
@@ -6018,7 +6533,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -6055,7 +6570,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -6078,16 +6593,16 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="O12" s="36" t="s">
+      <c r="O12" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="33">
         <v>4</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="31">
         <v>35</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="33">
         <v>5</v>
       </c>
     </row>
@@ -6120,22 +6635,22 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -6180,7 +6695,7 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="14"/>
@@ -6205,7 +6720,7 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5"/>
@@ -6344,7 +6859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:T42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -6366,76 +6881,76 @@
   <sheetData>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="K4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="62" t="s">
+      <c r="M4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="63"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="60"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -6443,19 +6958,19 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="39" t="s">
         <v>148</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="39" t="s">
         <v>160</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="39" t="s">
         <v>148</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -6465,16 +6980,16 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="40">
         <v>4</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="41">
         <v>35</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="42">
         <v>3</v>
       </c>
     </row>
@@ -6572,16 +7087,16 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="43">
         <v>4</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="41">
         <v>35</v>
       </c>
-      <c r="R9" s="45">
+      <c r="R9" s="42">
         <v>3</v>
       </c>
     </row>
@@ -6609,21 +7124,21 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="46" t="s">
+      <c r="O10" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="43">
         <v>3</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="44">
         <v>25</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="14"/>
@@ -6646,21 +7161,21 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="43">
         <v>4</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="44">
         <v>35</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -6717,20 +7232,20 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="39" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6773,7 +7288,7 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="14"/>
@@ -6790,7 +7305,7 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -6915,60 +7430,60 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="62" t="s">
+      <c r="C25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="62" t="s">
+      <c r="E25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="62" t="s">
+      <c r="G25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="62" t="s">
+      <c r="I25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="62" t="s">
+      <c r="K25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="62" t="s">
+      <c r="M25" s="59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -6976,11 +7491,11 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="42"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="42"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -7056,7 +7571,7 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="14"/>
@@ -7073,7 +7588,7 @@
       <c r="M32" s="14"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -7126,26 +7641,26 @@
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -7190,7 +7705,7 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -7211,7 +7726,7 @@
       <c r="M38" s="14"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="5"/>
@@ -7351,8 +7866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:W62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7367,92 +7882,92 @@
   <sheetData>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="K4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="62" t="s">
+      <c r="M4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="62" t="s">
+      <c r="T4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="62" t="s">
+      <c r="W4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="63"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="60"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -7461,7 +7976,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>142</v>
@@ -7471,7 +7986,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>131</v>
@@ -7502,7 +8017,7 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>142</v>
@@ -7512,23 +8027,23 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>131</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="46" t="s">
+      <c r="O7" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="43">
         <v>4</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="48">
         <v>35</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="43">
         <v>3</v>
       </c>
       <c r="T7" s="22"/>
@@ -7560,16 +8075,16 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="43">
         <v>3</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="48">
         <v>35</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="43">
         <v>3</v>
       </c>
       <c r="T8" s="22"/>
@@ -7601,16 +8116,16 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="43">
         <v>3</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="48">
         <v>35</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="43">
         <v>3</v>
       </c>
       <c r="T9" s="26"/>
@@ -7638,16 +8153,16 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="46" t="s">
+      <c r="O10" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="43">
         <v>4</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="48">
         <v>35</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="43">
         <v>3</v>
       </c>
       <c r="T10" s="22"/>
@@ -7656,7 +8171,7 @@
       <c r="W10" s="22"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="14"/>
@@ -7675,16 +8190,16 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="43">
         <v>4</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="48">
         <v>35</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="43">
         <v>3</v>
       </c>
       <c r="T11" s="22"/>
@@ -7693,7 +8208,7 @@
       <c r="W11" s="22"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5"/>
@@ -7716,31 +8231,31 @@
       <c r="M12" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="O12" s="49" t="s">
+      <c r="O12" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="49">
+      <c r="P12" s="46">
         <v>3</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q12" s="47">
         <v>25</v>
       </c>
-      <c r="R12" s="49">
+      <c r="R12" s="46">
         <v>8</v>
       </c>
       <c r="S12" t="s">
         <v>171</v>
       </c>
-      <c r="T12" s="49" t="s">
+      <c r="T12" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="U12" s="49">
+      <c r="U12" s="46">
         <v>3</v>
       </c>
-      <c r="V12" s="50">
+      <c r="V12" s="47">
         <v>20</v>
       </c>
-      <c r="W12" s="49">
+      <c r="W12" s="46">
         <v>1</v>
       </c>
     </row>
@@ -7764,16 +8279,16 @@
       <c r="M13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="O13" s="56" t="s">
+      <c r="O13" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="56">
+      <c r="P13" s="53">
         <v>3</v>
       </c>
-      <c r="Q13" s="57">
+      <c r="Q13" s="54">
         <v>35</v>
       </c>
-      <c r="R13" s="72">
+      <c r="R13" s="69">
         <v>2</v>
       </c>
     </row>
@@ -7781,28 +8296,28 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42" t="s">
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="39" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7857,7 +8372,7 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="14"/>
@@ -7878,7 +8393,7 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5"/>
@@ -7887,7 +8402,7 @@
         <v>175</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>179</v>
@@ -7899,7 +8414,7 @@
         <v>175</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>179</v>
@@ -7920,7 +8435,7 @@
         <v>175</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>179</v>
@@ -7932,7 +8447,7 @@
         <v>175</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>179</v>
@@ -7951,7 +8466,7 @@
         <v>186</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -7980,7 +8495,7 @@
         <v>186</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -8003,60 +8518,60 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="62" t="s">
+      <c r="C25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="62" t="s">
+      <c r="E25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="62" t="s">
+      <c r="G25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="62" t="s">
+      <c r="I25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="62" t="s">
+      <c r="K25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="62" t="s">
+      <c r="M25" s="59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -8081,7 +8596,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>156</v>
@@ -8110,7 +8625,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>156</v>
@@ -8139,7 +8654,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>156</v>
@@ -8192,7 +8707,7 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="14"/>
@@ -8217,7 +8732,7 @@
       <c r="M32" s="14"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="5"/>
@@ -8266,22 +8781,22 @@
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="48" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -8350,7 +8865,7 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -8387,7 +8902,7 @@
       <c r="M38" s="14"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -8460,9 +8975,7 @@
       <c r="A41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>192</v>
-      </c>
+      <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
         <v>181</v>
@@ -8491,9 +9004,7 @@
       <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>192</v>
-      </c>
+      <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
         <v>181</v>
@@ -8520,60 +9031,60 @@
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="62" t="s">
+      <c r="C45" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="62" t="s">
+      <c r="E45" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="62" t="s">
+      <c r="G45" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="62" t="s">
+      <c r="I45" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="62" t="s">
+      <c r="K45" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="62" t="s">
+      <c r="M45" s="59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="67"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -8661,7 +9172,7 @@
       <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="14"/>
@@ -8678,7 +9189,7 @@
       <c r="M52" s="14"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="5"/>
@@ -8715,18 +9226,18 @@
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -8763,7 +9274,7 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="14"/>
@@ -8780,7 +9291,7 @@
       <c r="M58" s="14"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="5"/>
@@ -8812,7 +9323,7 @@
         <v>90</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -8833,7 +9344,7 @@
         <v>90</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
@@ -8854,7 +9365,7 @@
         <v>90</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -8936,91 +9447,91 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="K4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="62" t="s">
+      <c r="M4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="63"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="60"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>200</v>
+      <c r="B6" s="39" t="s">
+        <v>199</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="42" t="s">
-        <v>200</v>
+      <c r="F6" s="39" t="s">
+        <v>199</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>142</v>
@@ -9031,16 +9542,16 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="40">
         <v>4</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="41">
         <v>35</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="42">
         <v>3</v>
       </c>
     </row>
@@ -9049,7 +9560,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>131</v>
@@ -9057,7 +9568,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>142</v>
@@ -9068,16 +9579,16 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="46" t="s">
+      <c r="O7" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="43">
         <v>4</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="44">
         <v>35</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="43">
         <v>3</v>
       </c>
     </row>
@@ -9092,29 +9603,29 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>142</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>131</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="43">
         <v>4</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="44">
         <v>35</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="43">
         <v>3</v>
       </c>
     </row>
@@ -9129,29 +9640,29 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>131</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="43">
         <v>3</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="44">
         <v>30</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="43">
         <v>3</v>
       </c>
     </row>
@@ -9160,7 +9671,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>131</v>
@@ -9168,13 +9679,13 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>131</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>142</v>
@@ -9182,30 +9693,30 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="46" t="s">
+      <c r="O10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="43">
         <v>3</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="44">
         <v>35</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>131</v>
@@ -9213,13 +9724,13 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>131</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>142</v>
@@ -9227,44 +9738,44 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="43">
         <v>4</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="44">
         <v>35</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>142</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>156</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>142</v>
@@ -9273,16 +9784,16 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="O12" s="56" t="s">
+      <c r="O12" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P12" s="56">
+      <c r="P12" s="53">
         <v>4</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="54">
         <v>35</v>
       </c>
-      <c r="R12" s="72">
+      <c r="R12" s="69">
         <v>1</v>
       </c>
     </row>
@@ -9291,25 +9802,25 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>156</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>120</v>
@@ -9318,16 +9829,16 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="O13" s="56" t="s">
+      <c r="O13" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="P13" s="56">
+      <c r="P13" s="53">
         <v>4</v>
       </c>
-      <c r="Q13" s="57">
+      <c r="Q13" s="54">
         <v>35</v>
       </c>
-      <c r="R13" s="72">
+      <c r="R13" s="69">
         <v>1</v>
       </c>
     </row>
@@ -9335,34 +9846,34 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" s="42" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="42" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="K14" s="42" t="s">
+      <c r="J14" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="32"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -9371,7 +9882,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>120</v>
@@ -9379,19 +9890,19 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>131</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>131</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>131</v>
@@ -9402,7 +9913,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>142</v>
@@ -9410,7 +9921,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>156</v>
@@ -9418,24 +9929,24 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>131</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>142</v>
@@ -9443,7 +9954,7 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>156</v>
@@ -9453,42 +9964,42 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>188</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>188</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>184</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="J18" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>188</v>
@@ -9501,31 +10012,31 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>188</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>184</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="J19" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>188</v>
@@ -9538,31 +10049,31 @@
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>188</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>184</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>188</v>
@@ -9575,31 +10086,31 @@
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>142</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>184</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>188</v>
@@ -9609,70 +10120,70 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="62" t="s">
+      <c r="C25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="62" t="s">
+      <c r="E25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="62" t="s">
+      <c r="G25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="62" t="s">
+      <c r="I25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="62" t="s">
+      <c r="K25" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="62" t="s">
+      <c r="M25" s="59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="42"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -9750,7 +10261,7 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="14"/>
@@ -9767,7 +10278,7 @@
       <c r="M32" s="14"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="5"/>
@@ -9777,13 +10288,13 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>131</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>131</v>
@@ -9802,13 +10313,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>131</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>131</v>
@@ -9820,18 +10331,18 @@
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -9868,7 +10379,7 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="14"/>
@@ -9880,20 +10391,20 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>184</v>
@@ -9901,7 +10412,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>188</v>
@@ -9909,10 +10420,10 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -9926,7 +10437,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>188</v>
@@ -9934,10 +10445,10 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -9947,34 +10458,34 @@
         <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="D41" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>156</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="H41" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>188</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -9984,34 +10495,34 @@
         <v>4</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="D42" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>156</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="H42" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>188</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -10057,8 +10568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58:J59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10073,83 +10584,83 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="K4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="62" t="s">
+      <c r="M4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="63"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="60"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>217</v>
+      <c r="B6" s="39" t="s">
+        <v>216</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>142</v>
@@ -10157,39 +10668,39 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>216</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>142</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="40">
         <v>4</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="41">
         <v>35</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="42">
         <v>2</v>
       </c>
     </row>
@@ -10198,7 +10709,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>142</v>
@@ -10206,25 +10717,25 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>142</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>184</v>
@@ -10252,7 +10763,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>131</v>
@@ -10260,27 +10771,27 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>142</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="43">
         <v>4</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="44">
         <v>35</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="43">
         <v>2</v>
       </c>
     </row>
@@ -10293,7 +10804,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>131</v>
@@ -10301,27 +10812,27 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>142</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="43">
         <v>4</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="44">
         <v>35</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="43">
         <v>2</v>
       </c>
     </row>
@@ -10332,111 +10843,111 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>184</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>184</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>156</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>142</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="O10" s="46" t="s">
+      <c r="O10" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="43">
         <v>4</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="44">
         <v>35</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>184</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>184</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>156</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>142</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="43">
         <v>4</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="44">
         <v>40</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>184</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>184</v>
@@ -10447,16 +10958,16 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="O12" s="56" t="s">
+      <c r="O12" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="P12" s="56">
+      <c r="P12" s="53">
         <v>4</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="54">
         <v>35</v>
       </c>
-      <c r="R12" s="56">
+      <c r="R12" s="53">
         <v>2</v>
       </c>
     </row>
@@ -10467,13 +10978,13 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>184</v>
@@ -10484,16 +10995,16 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="O13" s="56" t="s">
+      <c r="O13" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="56">
+      <c r="P13" s="53">
         <v>4</v>
       </c>
-      <c r="Q13" s="57">
+      <c r="Q13" s="54">
         <v>35</v>
       </c>
-      <c r="R13" s="72">
+      <c r="R13" s="69">
         <v>1</v>
       </c>
     </row>
@@ -10501,28 +11012,28 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="O14" s="75" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="O14" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="75">
+      <c r="P14" s="72">
         <v>3</v>
       </c>
-      <c r="Q14" s="76">
+      <c r="Q14" s="73">
         <v>35</v>
       </c>
-      <c r="R14" s="77">
+      <c r="R14" s="74">
         <v>2</v>
       </c>
     </row>
@@ -10542,16 +11053,16 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="53">
         <v>4</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="54">
         <v>35</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="69">
         <v>2</v>
       </c>
     </row>
@@ -10573,7 +11084,7 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="14"/>
@@ -10590,38 +11101,38 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="J18" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -10631,34 +11142,34 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="J19" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -10668,28 +11179,28 @@
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>184</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>184</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -10701,28 +11212,28 @@
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>184</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -10731,72 +11242,72 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="62" t="s">
+      <c r="E24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="62" t="s">
+      <c r="G24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="62" t="s">
+      <c r="I24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="62" t="s">
+      <c r="K24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="62" t="s">
+      <c r="M24" s="59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="42"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -10872,7 +11383,7 @@
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="14"/>
@@ -10889,7 +11400,7 @@
       <c r="M31" s="14"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="5"/>
@@ -10926,18 +11437,18 @@
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -10974,7 +11485,7 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="14"/>
@@ -10991,38 +11502,38 @@
       <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="H38" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J38" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -11032,34 +11543,34 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="H39" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J39" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -11071,28 +11582,28 @@
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>188</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>188</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -11104,100 +11615,100 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>188</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>188</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="62" t="s">
+      <c r="C44" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="62" t="s">
+      <c r="E44" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="62" t="s">
+      <c r="G44" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="62" t="s">
+      <c r="I44" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="62" t="s">
+      <c r="K44" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M44" s="62" t="s">
+      <c r="M44" s="59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="42"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -11273,7 +11784,7 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="14"/>
@@ -11290,7 +11801,7 @@
       <c r="M51" s="14"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="5"/>
@@ -11327,18 +11838,18 @@
       <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -11375,7 +11886,7 @@
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="14"/>
@@ -11392,22 +11903,22 @@
       <c r="M57" s="14"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -11421,18 +11932,18 @@
         <v>5</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -11546,119 +12057,119 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="K4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="62" t="s">
+      <c r="M4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="63"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="60"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>262</v>
+      <c r="B6" s="39" t="s">
+        <v>261</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="42" t="s">
-        <v>262</v>
+      <c r="F6" s="39" t="s">
+        <v>261</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>184</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>184</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>156</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="40">
         <v>12</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="41">
         <v>10</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="42">
         <v>5</v>
       </c>
     </row>
@@ -11667,7 +12178,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>184</v>
@@ -11675,35 +12186,35 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>184</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>184</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>156</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="30">
         <v>12</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="Q7" s="55">
         <v>10</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="30">
         <v>7</v>
       </c>
     </row>
@@ -11723,16 +12234,16 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="30">
         <v>4</v>
       </c>
-      <c r="Q8" s="58">
+      <c r="Q8" s="55">
         <v>35</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="30">
         <v>3</v>
       </c>
     </row>
@@ -11752,16 +12263,16 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="49" t="s">
+      <c r="O9" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="46">
         <v>4</v>
       </c>
-      <c r="Q9" s="73">
+      <c r="Q9" s="70">
         <v>35</v>
       </c>
-      <c r="R9" s="74">
+      <c r="R9" s="71">
         <v>2</v>
       </c>
     </row>
@@ -11814,13 +12325,13 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>188</v>
@@ -11843,13 +12354,13 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>188</v>
@@ -11910,14 +12421,14 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="14"/>
@@ -11931,31 +12442,31 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -11969,18 +12480,18 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -11994,16 +12505,16 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -12019,16 +12530,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -12039,60 +12550,60 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="62" t="s">
+      <c r="C23" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="62" t="s">
+      <c r="E23" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="62" t="s">
+      <c r="G23" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="62" t="s">
+      <c r="I23" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="62" t="s">
+      <c r="K23" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="62" t="s">
+      <c r="M23" s="59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -12279,10 +12790,10 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -12300,10 +12811,10 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">

--- a/Contaduria/HORARIOS CONTADURIA.xlsx
+++ b/Contaduria/HORARIOS CONTADURIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D7024B-5747-40CE-B028-AABA38E6693E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F8DA31-21CD-4A4F-9012-37FF12F919C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="327">
   <si>
     <t>HORA</t>
   </si>
@@ -881,6 +881,141 @@
   </si>
   <si>
     <t>CP401(01)</t>
+  </si>
+  <si>
+    <t>AE111C(01)</t>
+  </si>
+  <si>
+    <t>402H</t>
+  </si>
+  <si>
+    <t>AE111C(02)</t>
+  </si>
+  <si>
+    <t>405H</t>
+  </si>
+  <si>
+    <t>AE111C(03)</t>
+  </si>
+  <si>
+    <t>406H</t>
+  </si>
+  <si>
+    <t>AE135(01)</t>
+  </si>
+  <si>
+    <t>AE135(02)</t>
+  </si>
+  <si>
+    <t>207H</t>
+  </si>
+  <si>
+    <t>AE135(03)</t>
+  </si>
+  <si>
+    <t>AE113(01)</t>
+  </si>
+  <si>
+    <t>403H</t>
+  </si>
+  <si>
+    <t>AE113(02)</t>
+  </si>
+  <si>
+    <t>407H</t>
+  </si>
+  <si>
+    <t>AE113(03)</t>
+  </si>
+  <si>
+    <t>DR551(01)</t>
+  </si>
+  <si>
+    <t>DR551(02)</t>
+  </si>
+  <si>
+    <t>DR551(03)</t>
+  </si>
+  <si>
+    <t>HM301F(01)</t>
+  </si>
+  <si>
+    <t>HM301F(02)</t>
+  </si>
+  <si>
+    <t>HM301F(03)</t>
+  </si>
+  <si>
+    <t>MT201C(01)</t>
+  </si>
+  <si>
+    <t>MT201C(02)</t>
+  </si>
+  <si>
+    <t>MT201C(03)</t>
+  </si>
+  <si>
+    <t>206H</t>
+  </si>
+  <si>
+    <t>PG301F(01)</t>
+  </si>
+  <si>
+    <t>PG301F(02)</t>
+  </si>
+  <si>
+    <t>PG301F(03)</t>
+  </si>
+  <si>
+    <t>404H</t>
+  </si>
+  <si>
+    <t>MT304C(01)</t>
+  </si>
+  <si>
+    <t>MT304C(02)</t>
+  </si>
+  <si>
+    <t>MT304C(03)</t>
+  </si>
+  <si>
+    <t>DR561(01)</t>
+  </si>
+  <si>
+    <t>DR561(02)</t>
+  </si>
+  <si>
+    <t>DR561(03)</t>
+  </si>
+  <si>
+    <t>DR553(01)</t>
+  </si>
+  <si>
+    <t>DR555(02)</t>
+  </si>
+  <si>
+    <t>DR553(03)</t>
+  </si>
+  <si>
+    <t>MT305C(01)</t>
+  </si>
+  <si>
+    <t>MT305C(02)</t>
+  </si>
+  <si>
+    <t>MT305C(03)</t>
+  </si>
+  <si>
+    <t>DR554(01)</t>
+  </si>
+  <si>
+    <t>DR554(02)</t>
+  </si>
+  <si>
+    <t>DR554(03)</t>
+  </si>
+  <si>
+    <t>GUPOS 01 AL 03 PARA CONTADURIA</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1338,6 +1473,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1365,31 +1534,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1712,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,63 +1879,63 @@
   <sheetData>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P3" s="59" t="s">
+      <c r="P3" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="61" t="s">
+      <c r="R3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="59" t="s">
+      <c r="S3" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="60"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="72"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="71" t="s">
         <v>18</v>
       </c>
       <c r="P5" s="8" t="s">
@@ -1808,19 +1952,19 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
       <c r="P6" s="9" t="s">
         <v>26</v>
       </c>
@@ -1979,73 +2123,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="P15" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2081,39 +2228,39 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -2195,7 +2342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -2211,76 +2358,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="65"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="77"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2573,12 +2720,12 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="O13" s="66" t="s">
+      <c r="O13" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -2870,60 +3017,60 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="59" t="s">
+      <c r="M24" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3271,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A3:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,76 +3436,76 @@
   <sheetData>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="60"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3385,7 +3532,7 @@
       <c r="Q6" s="31">
         <v>35</v>
       </c>
-      <c r="R6" s="75">
+      <c r="R6" s="66">
         <v>2</v>
       </c>
       <c r="S6" s="52" t="s">
@@ -3417,17 +3564,17 @@
       <c r="Q7" s="55">
         <v>30</v>
       </c>
-      <c r="R7" s="68">
+      <c r="R7" s="59">
         <v>2</v>
       </c>
       <c r="S7" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="T7" s="77" t="s">
+      <c r="T7" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="U7" s="78"/>
-      <c r="V7" s="76" t="s">
+      <c r="U7" s="81"/>
+      <c r="V7" s="67" t="s">
         <v>276</v>
       </c>
       <c r="W7" s="30">
@@ -3436,7 +3583,7 @@
       <c r="X7" s="55">
         <v>30</v>
       </c>
-      <c r="Y7" s="68">
+      <c r="Y7" s="59">
         <v>1</v>
       </c>
     </row>
@@ -3461,7 +3608,7 @@
       </c>
       <c r="P8" s="30"/>
       <c r="Q8" s="55"/>
-      <c r="R8" s="68"/>
+      <c r="R8" s="59"/>
       <c r="S8" s="52" t="s">
         <v>113</v>
       </c>
@@ -3499,7 +3646,7 @@
       </c>
       <c r="P9" s="53"/>
       <c r="Q9" s="54"/>
-      <c r="R9" s="69"/>
+      <c r="R9" s="60"/>
       <c r="S9" s="52" t="s">
         <v>113</v>
       </c>
@@ -3537,7 +3684,7 @@
       </c>
       <c r="P10" s="53"/>
       <c r="Q10" s="54"/>
-      <c r="R10" s="69"/>
+      <c r="R10" s="60"/>
       <c r="S10" s="52" t="s">
         <v>118</v>
       </c>
@@ -3579,7 +3726,7 @@
       <c r="Q11" s="54">
         <v>35</v>
       </c>
-      <c r="R11" s="69">
+      <c r="R11" s="60">
         <v>3</v>
       </c>
       <c r="S11" s="52" t="s">
@@ -3615,7 +3762,7 @@
       </c>
       <c r="P12" s="53"/>
       <c r="Q12" s="54"/>
-      <c r="R12" s="69"/>
+      <c r="R12" s="60"/>
       <c r="S12" s="52" t="s">
         <v>113</v>
       </c>
@@ -3644,16 +3791,16 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="O13" s="53" t="s">
+      <c r="O13" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="68">
         <v>3</v>
       </c>
-      <c r="Q13" s="54">
+      <c r="Q13" s="69">
         <v>35</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="70">
         <v>1</v>
       </c>
       <c r="S13" t="s">
@@ -3689,7 +3836,7 @@
       <c r="Q14" s="54">
         <v>35</v>
       </c>
-      <c r="R14" s="69">
+      <c r="R14" s="60">
         <v>1</v>
       </c>
       <c r="S14" s="52" t="s">
@@ -3729,7 +3876,7 @@
       <c r="Q15" s="54">
         <v>35</v>
       </c>
-      <c r="R15" s="69">
+      <c r="R15" s="60">
         <v>2</v>
       </c>
       <c r="S15" s="52" t="s">
@@ -3756,16 +3903,16 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="O16" s="53" t="s">
+      <c r="O16" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="68">
         <v>3</v>
       </c>
-      <c r="Q16" s="54">
+      <c r="Q16" s="69">
         <v>35</v>
       </c>
-      <c r="R16" s="69">
+      <c r="R16" s="70">
         <v>1</v>
       </c>
       <c r="S16" t="s">
@@ -3797,7 +3944,7 @@
       </c>
       <c r="P17" s="53"/>
       <c r="Q17" s="54"/>
-      <c r="R17" s="69"/>
+      <c r="R17" s="60"/>
       <c r="S17" s="52" t="s">
         <v>113</v>
       </c>
@@ -3827,7 +3974,7 @@
       </c>
       <c r="P18" s="53"/>
       <c r="Q18" s="54"/>
-      <c r="R18" s="69"/>
+      <c r="R18" s="60"/>
       <c r="S18" s="52" t="s">
         <v>113</v>
       </c>
@@ -3903,7 +4050,7 @@
       </c>
       <c r="P20" s="53"/>
       <c r="Q20" s="54"/>
-      <c r="R20" s="69"/>
+      <c r="R20" s="60"/>
       <c r="S20" s="52" t="s">
         <v>113</v>
       </c>
@@ -3937,7 +4084,7 @@
       </c>
       <c r="P21" s="53"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="69"/>
+      <c r="R21" s="60"/>
       <c r="S21" s="52" t="s">
         <v>117</v>
       </c>
@@ -3965,69 +4112,69 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="59" t="s">
+      <c r="M24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O24" s="72" t="s">
+      <c r="O24" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="74"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="65"/>
       <c r="S24" s="52" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
       <c r="O25" s="18" t="s">
         <v>110</v>
       </c>
@@ -4387,8 +4534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4409,76 +4556,76 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="59" t="s">
+      <c r="S4" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="60"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="72"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4490,8 +4637,12 @@
       <c r="C6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>123</v>
       </c>
@@ -4504,16 +4655,16 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="56">
         <v>2</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="32">
         <v>35</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="32">
         <v>3</v>
       </c>
     </row>
@@ -4527,8 +4678,12 @@
       <c r="C7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>123</v>
       </c>
@@ -4541,16 +4696,16 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="30">
         <v>4</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="56">
         <v>35</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="32">
         <v>3</v>
       </c>
     </row>
@@ -4558,16 +4713,36 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="P8" s="30" t="s">
@@ -4587,28 +4762,48 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="30">
         <v>2</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="56">
         <v>35</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="32">
         <v>3</v>
       </c>
     </row>
@@ -4628,84 +4823,92 @@
       <c r="I10" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="30">
         <v>4</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="56">
         <v>35</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="P11" s="9" t="s">
+      <c r="J11" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="P11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="30">
         <v>2</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="56">
         <v>35</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="P12" s="33" t="s">
         <v>47</v>
       </c>
@@ -4720,33 +4923,33 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="P13" s="10" t="s">
         <v>45</v>
       </c>
@@ -4761,36 +4964,52 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
+      <c r="B14" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
@@ -4806,60 +5025,108 @@
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="H18" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -4871,16 +5138,24 @@
       <c r="C19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="J19" s="6" t="s">
         <v>121</v>
       </c>
@@ -4894,16 +5169,24 @@
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="D20" s="6" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="H20" s="6" t="s">
         <v>125</v>
       </c>
@@ -4923,16 +5206,24 @@
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="D21" s="7" t="s">
         <v>125</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="H21" s="7" t="s">
         <v>125</v>
       </c>
@@ -4950,60 +5241,60 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="59" t="s">
+      <c r="M24" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -5192,54 +5483,78 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="B38" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="J39" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
@@ -5279,60 +5594,60 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="59" t="s">
+      <c r="F44" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="H44" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="59" t="s">
+      <c r="I44" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="59" t="s">
+      <c r="J44" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="59" t="s">
+      <c r="K44" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="59" t="s">
+      <c r="L44" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M44" s="59" t="s">
+      <c r="M44" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -5660,8 +5975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5682,76 +5997,76 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="65"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="77"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5781,16 +6096,16 @@
       <c r="M6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="56">
         <v>3</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="36">
         <v>35</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="32">
         <v>3</v>
       </c>
     </row>
@@ -5822,16 +6137,16 @@
       <c r="M7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="30">
         <v>3</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="36">
         <v>35</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="30">
         <v>3</v>
       </c>
     </row>
@@ -5839,10 +6154,18 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -5872,28 +6195,40 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="30">
         <v>3</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="36">
         <v>35</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="30">
         <v>3</v>
       </c>
     </row>
@@ -5901,8 +6236,12 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>128</v>
       </c>
@@ -5915,8 +6254,12 @@
       <c r="G10" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="J10" s="6" t="s">
         <v>134</v>
       </c>
@@ -5938,34 +6281,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
+      <c r="H11" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
       <c r="O11" s="9" t="s">
         <v>40</v>
       </c>
@@ -5980,25 +6327,29 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="O12" s="9" t="s">
         <v>38</v>
       </c>
@@ -6016,49 +6367,73 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -6078,8 +6453,12 @@
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6095,78 +6474,106 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
+      <c r="B17" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="F18" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="J18" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="D19" s="6" t="s">
         <v>127</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="H19" s="6" t="s">
         <v>127</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
@@ -6180,16 +6587,24 @@
       <c r="C20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="F20" s="6" t="s">
         <v>132</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="J20" s="6" t="s">
         <v>130</v>
       </c>
@@ -6209,16 +6624,24 @@
       <c r="C21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="F21" s="7" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="J21" s="7" t="s">
         <v>130</v>
       </c>
@@ -6254,10 +6677,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:R21"/>
+  <dimension ref="A3:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6278,76 +6701,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="60"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -6373,16 +6796,16 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="56">
         <v>3</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="31">
         <v>35</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="32">
         <v>3</v>
       </c>
     </row>
@@ -6427,10 +6850,18 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
@@ -6464,8 +6895,12 @@
       <c r="C9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
@@ -6482,16 +6917,16 @@
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="30">
         <v>3</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="31">
         <v>35</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="30">
         <v>3</v>
       </c>
     </row>
@@ -6513,22 +6948,30 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="30">
         <v>3</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="31">
         <v>35</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="30">
         <v>3</v>
       </c>
     </row>
@@ -6550,10 +6993,18 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>259</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="O11" s="9" t="s">
@@ -6587,10 +7038,18 @@
       <c r="G12" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="O12" s="33" t="s">
@@ -6610,10 +7069,18 @@
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="F13" s="7" t="s">
         <v>138</v>
       </c>
@@ -6622,8 +7089,12 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="O13" s="10"/>
@@ -6637,8 +7108,12 @@
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="D14" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>285</v>
+      </c>
       <c r="F14" s="39" t="s">
         <v>138</v>
       </c>
@@ -6647,8 +7122,12 @@
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="J14" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>259</v>
+      </c>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
     </row>
@@ -6658,8 +7137,12 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -6675,8 +7158,12 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="F16" s="6" t="s">
         <v>145</v>
       </c>
@@ -6700,16 +7187,24 @@
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="F17" s="14" t="s">
         <v>145</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="J17" s="14" t="s">
         <v>145</v>
       </c>
@@ -6723,16 +7218,24 @@
       <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="H18" s="5" t="s">
         <v>143</v>
       </c>
@@ -6791,12 +7294,24 @@
       <c r="C20" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="J20" s="6" t="s">
         <v>140</v>
       </c>
@@ -6816,12 +7331,24 @@
       <c r="C21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="J21" s="7" t="s">
         <v>141</v>
       </c>
@@ -6831,8 +7358,354 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="76"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="30">
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -6859,8 +7732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6881,76 +7754,76 @@
   <sheetData>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="60"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -7021,16 +7894,16 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="43">
         <v>2</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="41">
         <v>35</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="42">
         <v>3</v>
       </c>
     </row>
@@ -7120,8 +7993,12 @@
       <c r="I10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="O10" s="43" t="s">
@@ -7157,8 +8034,12 @@
       <c r="I11" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="O11" s="43" t="s">
@@ -7276,8 +8157,12 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -7293,8 +8178,12 @@
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -7394,8 +8283,12 @@
       <c r="I20" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
@@ -7423,67 +8316,71 @@
       <c r="I21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="J21" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="59" t="s">
+      <c r="K25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="59" t="s">
+      <c r="M25" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -7866,8 +8763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:W62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7882,92 +8779,92 @@
   <sheetData>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="59" t="s">
+      <c r="T4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="59" t="s">
+      <c r="W4" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="60"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="72"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -8288,7 +9185,7 @@
       <c r="Q13" s="54">
         <v>35</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="60">
         <v>2</v>
       </c>
     </row>
@@ -8518,60 +9415,60 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="59" t="s">
+      <c r="K25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="59" t="s">
+      <c r="M25" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -9031,60 +9928,60 @@
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="59" t="s">
+      <c r="K45" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="59" t="s">
+      <c r="L45" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="59" t="s">
+      <c r="M45" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -9447,76 +10344,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="60"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -9793,7 +10690,7 @@
       <c r="Q12" s="54">
         <v>35</v>
       </c>
-      <c r="R12" s="69">
+      <c r="R12" s="60">
         <v>1</v>
       </c>
     </row>
@@ -9838,7 +10735,7 @@
       <c r="Q13" s="54">
         <v>35</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="60">
         <v>1</v>
       </c>
     </row>
@@ -10120,60 +11017,60 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="59" t="s">
+      <c r="K25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="59" t="s">
+      <c r="M25" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -10584,76 +11481,76 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="60"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -11004,7 +11901,7 @@
       <c r="Q13" s="54">
         <v>35</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="60">
         <v>1</v>
       </c>
     </row>
@@ -11024,16 +11921,16 @@
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
-      <c r="O14" s="72" t="s">
+      <c r="O14" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="72">
+      <c r="P14" s="63">
         <v>3</v>
       </c>
-      <c r="Q14" s="73">
+      <c r="Q14" s="64">
         <v>35</v>
       </c>
-      <c r="R14" s="74">
+      <c r="R14" s="65">
         <v>2</v>
       </c>
     </row>
@@ -11062,7 +11959,7 @@
       <c r="Q15" s="54">
         <v>35</v>
       </c>
-      <c r="R15" s="69">
+      <c r="R15" s="60">
         <v>2</v>
       </c>
     </row>
@@ -11242,60 +12139,60 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="59" t="s">
+      <c r="M24" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -11643,60 +12540,60 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="59" t="s">
+      <c r="F44" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="H44" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="59" t="s">
+      <c r="I44" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="59" t="s">
+      <c r="J44" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="59" t="s">
+      <c r="K44" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="59" t="s">
+      <c r="L44" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M44" s="59" t="s">
+      <c r="M44" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -12057,76 +12954,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="60"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -12269,10 +13166,10 @@
       <c r="P9" s="46">
         <v>4</v>
       </c>
-      <c r="Q9" s="70">
+      <c r="Q9" s="61">
         <v>35</v>
       </c>
-      <c r="R9" s="71">
+      <c r="R9" s="62">
         <v>2</v>
       </c>
     </row>
@@ -12550,60 +13447,60 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="59" t="s">
+      <c r="K23" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="59" t="s">
+      <c r="L23" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="59" t="s">
+      <c r="M23" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
